--- a/Trading/gameWeekSample.xlsx
+++ b/Trading/gameWeekSample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="391">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -857,9 +857,6 @@
   </si>
   <si>
     <t xml:space="preserve">var8_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predicted: depvar1=1</t>
   </si>
   <si>
     <t xml:space="preserve">Odd Home</t>
@@ -1301,17 +1298,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:JT29"/>
+  <dimension ref="A1:JS29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="JA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="JT8" activeCellId="0" sqref="JT8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="278" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="279" min="279" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="280" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="279" style="0" width="11.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,43 +2148,40 @@
       <c r="JS1" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="JT1" s="0" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2529393</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>16</v>
@@ -2971,9 +2964,6 @@
         <v>2</v>
       </c>
       <c r="JS2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2982,34 +2972,34 @@
         <v>2501917</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>292</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>15</v>
@@ -3017,27 +3007,6 @@
       <c r="M3" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" s="0" t="n">
         <v>0</v>
       </c>
@@ -3813,9 +3782,6 @@
         <v>5</v>
       </c>
       <c r="JS3" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="JT3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3824,34 +3790,34 @@
         <v>2462969</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>297</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>18</v>
@@ -4634,9 +4600,6 @@
         <v>1</v>
       </c>
       <c r="JS4" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="JT4" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -4645,34 +4608,34 @@
         <v>2462965</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>18</v>
@@ -5455,9 +5418,6 @@
         <v>2</v>
       </c>
       <c r="JS5" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="JT5" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -5466,14 +5426,14 @@
         <v>2462966</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
@@ -5481,19 +5441,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>18</v>
@@ -6276,9 +6236,6 @@
         <v>2</v>
       </c>
       <c r="JS6" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="JT6" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -6287,14 +6244,14 @@
         <v>2462967</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
@@ -6302,19 +6259,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>18</v>
@@ -7097,9 +7054,6 @@
         <v>3</v>
       </c>
       <c r="JS7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="JT7" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7108,14 +7062,14 @@
         <v>2462971</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
@@ -7123,19 +7077,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>18</v>
@@ -7918,9 +7872,6 @@
         <v>3</v>
       </c>
       <c r="JS8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7929,14 +7880,14 @@
         <v>2462972</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
       </c>
@@ -7944,19 +7895,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>18</v>
@@ -8739,9 +8690,6 @@
         <v>4</v>
       </c>
       <c r="JS9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8750,34 +8698,34 @@
         <v>2529392</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="I10" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>16</v>
@@ -9560,9 +9508,6 @@
         <v>5</v>
       </c>
       <c r="JS10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9571,34 +9516,34 @@
         <v>2501913</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="I11" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>15</v>
@@ -10381,9 +10326,6 @@
         <v>5</v>
       </c>
       <c r="JS11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10392,34 +10334,34 @@
         <v>2529390</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>325</v>
-      </c>
       <c r="I12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>16</v>
@@ -11202,9 +11144,6 @@
         <v>5</v>
       </c>
       <c r="JS12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11213,14 +11152,14 @@
         <v>2462970</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
@@ -11228,19 +11167,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>18</v>
@@ -12023,9 +11962,6 @@
         <v>2</v>
       </c>
       <c r="JS13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12034,34 +11970,34 @@
         <v>2501914</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>15</v>
@@ -12844,9 +12780,6 @@
         <v>2</v>
       </c>
       <c r="JS14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT14" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12855,34 +12788,34 @@
         <v>2529395</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>336</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>16</v>
@@ -13665,9 +13598,6 @@
         <v>2</v>
       </c>
       <c r="JS15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13676,34 +13606,34 @@
         <v>2501915</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>340</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>15</v>
@@ -14486,9 +14416,6 @@
         <v>2</v>
       </c>
       <c r="JS16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14497,34 +14424,34 @@
         <v>2529398</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="I17" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>16</v>
@@ -15307,9 +15234,6 @@
         <v>4</v>
       </c>
       <c r="JS17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15318,34 +15242,34 @@
         <v>2462973</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>18</v>
@@ -16128,9 +16052,6 @@
         <v>3</v>
       </c>
       <c r="JS18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16139,34 +16060,34 @@
         <v>2529391</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>352</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>16</v>
@@ -16949,9 +16870,6 @@
         <v>6</v>
       </c>
       <c r="JS19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16960,34 +16878,34 @@
         <v>2501912</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="I20" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>15</v>
@@ -17770,9 +17688,6 @@
         <v>2</v>
       </c>
       <c r="JS20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17781,34 +17696,34 @@
         <v>2462964</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>18</v>
@@ -18591,9 +18506,6 @@
         <v>3</v>
       </c>
       <c r="JS21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18602,34 +18514,34 @@
         <v>2529397</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>364</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>16</v>
@@ -19412,9 +19324,6 @@
         <v>2</v>
       </c>
       <c r="JS22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT22" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19423,34 +19332,34 @@
         <v>2501920</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>15</v>
@@ -20233,9 +20142,6 @@
         <v>8</v>
       </c>
       <c r="JS23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20244,34 +20150,34 @@
         <v>2529396</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>372</v>
-      </c>
       <c r="I24" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>16</v>
@@ -21054,9 +20960,6 @@
         <v>6</v>
       </c>
       <c r="JS24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21065,34 +20968,34 @@
         <v>2501916</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>376</v>
-      </c>
       <c r="I25" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>15</v>
@@ -21875,9 +21778,6 @@
         <v>2</v>
       </c>
       <c r="JS25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21886,34 +21786,34 @@
         <v>2501918</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="I26" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>15</v>
@@ -22696,9 +22596,6 @@
         <v>6</v>
       </c>
       <c r="JS26" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22707,34 +22604,34 @@
         <v>2529394</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>384</v>
-      </c>
       <c r="I27" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>16</v>
@@ -23517,9 +23414,6 @@
         <v>5</v>
       </c>
       <c r="JS27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23528,14 +23422,14 @@
         <v>2462968</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>387</v>
-      </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
       </c>
@@ -23543,19 +23437,19 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>18</v>
@@ -24338,9 +24232,6 @@
         <v>1</v>
       </c>
       <c r="JS28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT28" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -24349,34 +24240,34 @@
         <v>2501919</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="I29" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>18</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>15</v>
@@ -25159,9 +25050,6 @@
         <v>4</v>
       </c>
       <c r="JS29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="JT29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
